--- a/2023_invoices.xlsx
+++ b/2023_invoices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catie\Python\eclipse invoice reader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913ED48A-E3A9-4A9C-828C-374A509BABDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6666B6B4-419F-44A8-B5A9-CDB6865A6276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-2616" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="183">
   <si>
     <t>id</t>
   </si>
@@ -52,7 +52,7 @@
     <t>22/07/2023</t>
   </si>
   <si>
-    <t>for Lls Flat 1-15,8, Eclipse, Hoffman Road, Walthamstow,</t>
+    <t xml:space="preserve"> Lls Flat 1-15,8, Eclipse, Hoffman Road, Walthamstow, London, E17 Prices do not include VAT unless otherwise noted.</t>
   </si>
   <si>
     <t>K18W007788</t>
@@ -133,7 +133,7 @@
     <t>12/09/2023</t>
   </si>
   <si>
-    <t>for Lls, Flats 1-33, 5, Champness Close, Walthamstow, E17 6ZA.</t>
+    <t xml:space="preserve"> Lls, Flats 1-33, 5, Champness Close, Walthamstow, E17 6ZA Tariff Name Next Flex</t>
   </si>
   <si>
     <t>K18W010201</t>
@@ -142,6 +142,9 @@
     <t>22/09/2023</t>
   </si>
   <si>
+    <t xml:space="preserve"> Lis Flat 1-15,8, Eclipse, Hoffman Road, Walthamstow, London, E17 Tariff Name Next Flex</t>
+  </si>
+  <si>
     <t>KGN Pillinger</t>
   </si>
   <si>
@@ -190,7 +193,7 @@
     <t>K18W001888</t>
   </si>
   <si>
-    <t>for Car Charge Supply, 7 Hoffmans Road, Walthamstow, London,</t>
+    <t xml:space="preserve"> Car Charge Supply, 7 Hoffmans Road, Walthamstow, London, E17 Tariff Name Next Flex</t>
   </si>
   <si>
     <t>K18W001882</t>
@@ -199,9 +202,6 @@
     <t>07/08/2023</t>
   </si>
   <si>
-    <t>| fEo1r7 C a6rZ DC.harge Supply, 7 Hoffmans Road, Walthamstow, London,</t>
-  </si>
-  <si>
     <t>02/10/2023</t>
   </si>
   <si>
@@ -259,7 +259,7 @@
     <t>03/10/2023</t>
   </si>
   <si>
-    <t>for E-On Br 10, Eclipse 2, Blackhorse Lane, Walthamstow, E17</t>
+    <t xml:space="preserve"> E-On Br 10, Eclipse 2, Blackhorse Lane, Walthamstow, E17 6DP</t>
   </si>
   <si>
     <t>K19W003104</t>
@@ -298,6 +298,9 @@
     <t>12/10/2023</t>
   </si>
   <si>
+    <t xml:space="preserve"> Lls, Flats 1-33, 5, Champness Close, Walthamstow, E17 6ZA</t>
+  </si>
+  <si>
     <t>Security Shutters</t>
   </si>
   <si>
@@ -313,9 +316,6 @@
     <t xml:space="preserve"> Car-Charging C-Ch 6, 5 Champness Close, Walthamstow, E17 6ZA Elecstoroiicaiitd</t>
   </si>
   <si>
-    <t>012W767120</t>
-  </si>
-  <si>
     <t>01/10/2023</t>
   </si>
   <si>
@@ -355,7 +355,7 @@
     <t>06/10/2023</t>
   </si>
   <si>
-    <t>for Lis, Flats 1-36, 14 Hoffman's Road, Walthamstow, London,</t>
+    <t xml:space="preserve"> ls, Flats 1-36, 14 Hoffman’S Road, Walthamstow, London, E17</t>
   </si>
   <si>
     <t>K18W006947</t>
@@ -406,10 +406,13 @@
     <t>22/10/2023</t>
   </si>
   <si>
+    <t xml:space="preserve"> Lis Flat 1-15,8, Eclipse, Hoffman Road, Walthamstow, London, E17</t>
+  </si>
+  <si>
     <t>06/11/2023</t>
   </si>
   <si>
-    <t>for Lls, Flats 1-36, 14 Hoffman's Road, Walthamstow, London,</t>
+    <t>Supply Address; Lls, Flats 1-36, 14 Hoffman'S Road, Walthamstow, London, E17 Tariff Name Next Flex</t>
   </si>
   <si>
     <t xml:space="preserve"> Ll Flats 1 - 36 No 13 Hotfmans Road, 11 - 12 Eclipse, Hookers Electriicciity</t>
@@ -478,7 +481,7 @@
     <t>22/11/2023</t>
   </si>
   <si>
-    <t>for Lis Flat 1-15,8, Eclipse, Hoffman Road, Walthamstow,</t>
+    <t xml:space="preserve"> Lls Flat 1-15,8, Eclipse, Hoffman Road, Walthamstow, London, E17</t>
   </si>
   <si>
     <t>30/11/2023</t>
@@ -511,10 +514,13 @@
     <t>Description Please provide 20 fobs for the property 14 Hoffmans Road. Please send them to our office: Maddie Rosca Crabtree PM 298 Marlborough House Regents Park Road N3 2UU</t>
   </si>
   <si>
+    <t xml:space="preserve"> Lls, Flats 1-36, 14 Hoffman's Road, Walthamstow, London, E17 Tariff Name Next Flex</t>
+  </si>
+  <si>
     <t>03/12/2023</t>
   </si>
   <si>
-    <t>01/12/2028</t>
+    <t xml:space="preserve"> E-On Br 10, Eclipse 2, Blackhorse Lane, Walthamstow, £17 6DP Tariff Name Next Flex</t>
   </si>
   <si>
     <t xml:space="preserve"> Lls 1-15, 11 Champness Close, Walthamstow, E17 6B</t>
@@ -560,6 +566,9 @@
   </si>
   <si>
     <t>Eclipse Private Flats Prep and Review of S/C Account for Period 1,950.00 390.00 2,340.00 (Plots 316-499) 1 Jan 2023 - 31 Dec 2023</t>
+  </si>
+  <si>
+    <t>D12W767120</t>
   </si>
 </sst>
 </file>
@@ -615,11 +624,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,15 +941,17 @@
   <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="115.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="112.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -943,7 +961,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1019,7 +1037,7 @@
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -1099,10 +1117,10 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H8">
         <v>150</v>
@@ -1118,7 +1136,7 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>2</v>
       </c>
       <c r="E9" t="s">
@@ -1144,7 +1162,7 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>2</v>
       </c>
       <c r="E10" t="s">
@@ -1170,14 +1188,14 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>2</v>
       </c>
       <c r="E11" t="s">
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -1196,17 +1214,17 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>2</v>
       </c>
       <c r="E12" t="s">
         <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H12">
         <v>53</v>
@@ -1222,17 +1240,17 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
         <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>57</v>
       </c>
       <c r="H13">
         <v>51</v>
@@ -1248,7 +1266,7 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>2</v>
       </c>
       <c r="E14" t="s">
@@ -1274,14 +1292,14 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>2</v>
       </c>
       <c r="E15" t="s">
         <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
         <v>38</v>
@@ -1300,17 +1318,17 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="H16">
         <v>68</v>
@@ -1326,7 +1344,7 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" t="s">
@@ -1352,7 +1370,7 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>2</v>
       </c>
       <c r="E18" t="s">
@@ -1378,14 +1396,14 @@
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>2</v>
       </c>
       <c r="E19" t="s">
         <v>127</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
@@ -1404,14 +1422,14 @@
       <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G20" t="s">
         <v>112</v>
@@ -1430,14 +1448,14 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G21" t="s">
         <v>105</v>
@@ -1456,14 +1474,14 @@
       <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G22" t="s">
         <v>105</v>
@@ -1482,11 +1500,14 @@
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>2</v>
       </c>
       <c r="E23" t="s">
         <v>125</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -1505,14 +1526,14 @@
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
@@ -1531,14 +1552,14 @@
       <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G25" t="s">
         <v>105</v>
@@ -1557,14 +1578,14 @@
       <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="G26" t="s">
         <v>112</v>
@@ -1583,14 +1604,14 @@
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="G27" t="s">
         <v>80</v>
@@ -1609,14 +1630,14 @@
       <c r="C28" t="s">
         <v>8</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G28" t="s">
         <v>105</v>
@@ -1635,17 +1656,17 @@
       <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>3</v>
       </c>
-      <c r="E29" t="s">
-        <v>164</v>
+      <c r="E29" s="4">
+        <v>45261</v>
       </c>
       <c r="F29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H29">
         <v>2407</v>
@@ -1679,13 +1700,13 @@
         <v>3339185</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H31">
         <v>456</v>
@@ -1699,10 +1720,10 @@
         <v>3386661</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
         <v>81</v>
@@ -1719,10 +1740,10 @@
         <v>3387432</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
         <v>82</v>
@@ -1739,10 +1760,10 @@
         <v>3387608</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
         <v>83</v>
@@ -1759,7 +1780,7 @@
         <v>3407209</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
         <v>100</v>
@@ -1779,7 +1800,7 @@
         <v>3407593</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" t="s">
         <v>100</v>
@@ -1799,13 +1820,13 @@
         <v>3481766</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H37">
         <v>240</v>
@@ -1819,13 +1840,13 @@
         <v>3536821</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H38">
         <v>300</v>
@@ -1839,13 +1860,13 @@
         <v>3555708</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H39">
         <v>300</v>
@@ -1859,13 +1880,13 @@
         <v>3556092</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H40">
         <v>360</v>
@@ -1879,13 +1900,13 @@
         <v>4639055</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F41" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H41">
         <v>294</v>
@@ -1899,13 +1920,13 @@
         <v>4724106</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E42" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F42" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H42">
         <v>294</v>
@@ -1919,13 +1940,13 @@
         <v>3505482</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H43">
         <v>5453</v>
@@ -1942,7 +1963,7 @@
         <v>84</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F44" t="s">
         <v>85</v>
@@ -1982,10 +2003,10 @@
         <v>84</v>
       </c>
       <c r="E46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H46">
         <v>3188</v>
@@ -2002,10 +2023,10 @@
         <v>84</v>
       </c>
       <c r="E47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F47" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H47">
         <v>3188</v>
@@ -2019,13 +2040,13 @@
         <v>3336394</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H48">
         <v>2250</v>
@@ -2039,7 +2060,7 @@
         <v>3394662</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E49" t="s">
         <v>87</v>
@@ -2059,7 +2080,7 @@
         <v>3394672</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E50" t="s">
         <v>87</v>
@@ -2079,7 +2100,7 @@
         <v>3394681</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E51" t="s">
         <v>87</v>
@@ -2099,7 +2120,7 @@
         <v>3394760</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E52" t="s">
         <v>87</v>
@@ -2119,7 +2140,7 @@
         <v>3394764</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
         <v>87</v>
@@ -2139,7 +2160,7 @@
         <v>3394770</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E54" t="s">
         <v>87</v>
@@ -2159,7 +2180,7 @@
         <v>3404771</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E55" t="s">
         <v>100</v>
@@ -2179,7 +2200,7 @@
         <v>3404984</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E56" t="s">
         <v>102</v>
@@ -2199,7 +2220,7 @@
         <v>3404994</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E57" t="s">
         <v>102</v>
@@ -2219,7 +2240,7 @@
         <v>3405001</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E58" t="s">
         <v>102</v>
@@ -2239,7 +2260,7 @@
         <v>3405005</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E59" t="s">
         <v>102</v>
@@ -2259,7 +2280,7 @@
         <v>3417921</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E60" t="s">
         <v>113</v>
@@ -2279,7 +2300,7 @@
         <v>3451701</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E61" t="s">
         <v>102</v>
@@ -2342,7 +2363,7 @@
         <v>19</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F64" t="s">
         <v>86</v>
@@ -2362,7 +2383,7 @@
         <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F65" t="s">
         <v>124</v>
@@ -2382,10 +2403,10 @@
         <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F66" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H66">
         <v>486</v>
@@ -2482,10 +2503,10 @@
         <v>68</v>
       </c>
       <c r="E71" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H71">
         <v>960</v>
@@ -2502,10 +2523,10 @@
         <v>68</v>
       </c>
       <c r="E72" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F72" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H72">
         <v>240</v>
@@ -2519,13 +2540,13 @@
         <v>49402</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E73" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F73" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H73">
         <v>2340</v>
@@ -2539,13 +2560,13 @@
         <v>49404</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E74" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F74" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H74">
         <v>2340</v>
@@ -2559,13 +2580,13 @@
         <v>49407</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E75" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F75" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H75">
         <v>2340</v>
@@ -2582,7 +2603,7 @@
         <v>76</v>
       </c>
       <c r="E76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F76" t="s">
         <v>77</v>
@@ -2602,10 +2623,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F77" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H77">
         <v>2259</v>
@@ -2622,10 +2643,10 @@
         <v>76</v>
       </c>
       <c r="E78" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F78" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H78">
         <v>2259</v>
@@ -2659,13 +2680,13 @@
         <v>3401633</v>
       </c>
       <c r="C80" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H80">
         <v>345</v>
@@ -2679,13 +2700,13 @@
         <v>3496098</v>
       </c>
       <c r="C81" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E81" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F81" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H81">
         <v>323</v>
@@ -2699,16 +2720,16 @@
         <v>3351711</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H82">
         <v>3544</v>
@@ -2722,16 +2743,16 @@
         <v>3351767</v>
       </c>
       <c r="C83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H83">
         <v>3889</v>
@@ -2745,7 +2766,7 @@
         <v>3353971</v>
       </c>
       <c r="C84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E84" t="s">
         <v>60</v>
@@ -2998,16 +3019,16 @@
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F95" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H95">
         <v>409</v>
       </c>
       <c r="I95" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3018,13 +3039,13 @@
         <v>3337994</v>
       </c>
       <c r="C96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96">
         <v>2037</v>
@@ -3038,7 +3059,7 @@
         <v>3408684</v>
       </c>
       <c r="C97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E97" t="s">
         <v>108</v>
@@ -3058,13 +3079,13 @@
         <v>3481637</v>
       </c>
       <c r="C98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F98" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H98">
         <v>2037</v>
@@ -3078,13 +3099,13 @@
         <v>3504485</v>
       </c>
       <c r="C99" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E99" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F99" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H99">
         <v>264</v>
